--- a/resutls.xlsx
+++ b/resutls.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -242,11 +243,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="595120640"/>
-        <c:axId val="69421312"/>
+        <c:axId val="578763264"/>
+        <c:axId val="137018112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="595120640"/>
+        <c:axId val="578763264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -255,7 +256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69421312"/>
+        <c:crossAx val="137018112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -263,7 +264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69421312"/>
+        <c:axId val="137018112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -274,7 +275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="595120640"/>
+        <c:crossAx val="578763264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -679,11 +680,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="571193344"/>
-        <c:axId val="69423040"/>
+        <c:axId val="554541056"/>
+        <c:axId val="574521920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="571193344"/>
+        <c:axId val="554541056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,7 +694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69423040"/>
+        <c:crossAx val="574521920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,7 +702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69423040"/>
+        <c:axId val="574521920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.45"/>
@@ -714,7 +715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571193344"/>
+        <c:crossAx val="554541056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1069,11 +1070,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="692031488"/>
-        <c:axId val="69425344"/>
+        <c:axId val="579131392"/>
+        <c:axId val="574524224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="692031488"/>
+        <c:axId val="579131392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69425344"/>
+        <c:crossAx val="574524224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,7 +1092,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69425344"/>
+        <c:axId val="574524224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="692031488"/>
+        <c:crossAx val="579131392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1630,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M44" sqref="M44:M51"/>
     </sheetView>
   </sheetViews>
@@ -3069,4 +3070,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>